--- a/artfynd/A 19358-2023.xlsx
+++ b/artfynd/A 19358-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>89596650</v>
+        <v>89596652</v>
       </c>
       <c r="B2" t="n">
-        <v>56395</v>
+        <v>89392</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>100109</v>
+        <v>1202</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>499359.1099011709</v>
+        <v>499487.0027453392</v>
       </c>
       <c r="R2" t="n">
-        <v>7085759.791431802</v>
+        <v>7085828.909325912</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -766,11 +766,6 @@
       <c r="AB2" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -801,10 +796,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>89596652</v>
+        <v>89596664</v>
       </c>
       <c r="B3" t="n">
-        <v>89392</v>
+        <v>77506</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -817,21 +812,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1202</v>
+        <v>6425</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -841,10 +836,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>499487.0027453392</v>
+        <v>499509.930857877</v>
       </c>
       <c r="R3" t="n">
-        <v>7085828.909325912</v>
+        <v>7085817.01519425</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -917,10 +912,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>89596702</v>
+        <v>89596650</v>
       </c>
       <c r="B4" t="n">
-        <v>89356</v>
+        <v>56395</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -929,25 +924,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>5447</v>
+        <v>100109</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -957,10 +952,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>499326.9311505322</v>
+        <v>499359.1099011709</v>
       </c>
       <c r="R4" t="n">
-        <v>7085816.168399233</v>
+        <v>7085759.791431802</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1003,6 +998,11 @@
       <c r="AB4" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1033,10 +1033,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>89596704</v>
+        <v>89596702</v>
       </c>
       <c r="B5" t="n">
-        <v>77506</v>
+        <v>89356</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1045,25 +1045,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6425</v>
+        <v>5447</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1073,10 +1073,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>498982.9346804961</v>
+        <v>499326.9311505322</v>
       </c>
       <c r="R5" t="n">
-        <v>7085676.214588321</v>
+        <v>7085816.168399233</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1149,7 +1149,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>89596600</v>
+        <v>89596704</v>
       </c>
       <c r="B6" t="n">
         <v>77506</v>
@@ -1189,10 +1189,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>499800.9774889108</v>
+        <v>498982.9346804961</v>
       </c>
       <c r="R6" t="n">
-        <v>7085994.014255985</v>
+        <v>7085676.214588321</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1265,7 +1265,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>89596664</v>
+        <v>89596600</v>
       </c>
       <c r="B7" t="n">
         <v>77506</v>
@@ -1305,10 +1305,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>499509.930857877</v>
+        <v>499800.9774889108</v>
       </c>
       <c r="R7" t="n">
-        <v>7085817.01519425</v>
+        <v>7085994.014255985</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>

--- a/artfynd/A 19358-2023.xlsx
+++ b/artfynd/A 19358-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>89596652</v>
+        <v>89596650</v>
       </c>
       <c r="B2" t="n">
-        <v>89392</v>
+        <v>56395</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1202</v>
+        <v>100109</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>499487.0027453392</v>
+        <v>499359.1099011709</v>
       </c>
       <c r="R2" t="n">
-        <v>7085828.909325912</v>
+        <v>7085759.791431802</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -766,6 +766,11 @@
       <c r="AB2" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -796,10 +801,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>89596664</v>
+        <v>89596652</v>
       </c>
       <c r="B3" t="n">
-        <v>77506</v>
+        <v>89392</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -812,21 +817,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6425</v>
+        <v>1202</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -836,10 +841,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>499509.930857877</v>
+        <v>499487.0027453392</v>
       </c>
       <c r="R3" t="n">
-        <v>7085817.01519425</v>
+        <v>7085828.909325912</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -912,10 +917,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>89596650</v>
+        <v>89596702</v>
       </c>
       <c r="B4" t="n">
-        <v>56395</v>
+        <v>89356</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -924,25 +929,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>100109</v>
+        <v>5447</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -952,10 +957,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>499359.1099011709</v>
+        <v>499326.9311505322</v>
       </c>
       <c r="R4" t="n">
-        <v>7085759.791431802</v>
+        <v>7085816.168399233</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -998,11 +1003,6 @@
       <c r="AB4" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1033,10 +1033,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>89596702</v>
+        <v>89596704</v>
       </c>
       <c r="B5" t="n">
-        <v>89356</v>
+        <v>77506</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1045,25 +1045,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>5447</v>
+        <v>6425</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1073,10 +1073,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>499326.9311505322</v>
+        <v>498982.9346804961</v>
       </c>
       <c r="R5" t="n">
-        <v>7085816.168399233</v>
+        <v>7085676.214588321</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1149,7 +1149,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>89596704</v>
+        <v>89596600</v>
       </c>
       <c r="B6" t="n">
         <v>77506</v>
@@ -1189,10 +1189,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>498982.9346804961</v>
+        <v>499800.9774889108</v>
       </c>
       <c r="R6" t="n">
-        <v>7085676.214588321</v>
+        <v>7085994.014255985</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1265,7 +1265,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>89596600</v>
+        <v>89596664</v>
       </c>
       <c r="B7" t="n">
         <v>77506</v>
@@ -1305,10 +1305,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>499800.9774889108</v>
+        <v>499509.930857877</v>
       </c>
       <c r="R7" t="n">
-        <v>7085994.014255985</v>
+        <v>7085817.01519425</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
